--- a/Config/Australia_Registry_Config.xlsx
+++ b/Config/Australia_Registry_Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRADSOL123\PycharmProjects\MNS-Australia\MNS-Australia\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D9A3C6-731D-4C76-BA32-FD1919DD96E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2FC3B4-B0ED-4A7D-9990-7F5DA008A6C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="1245" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$21</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="68">
   <si>
     <t>Field_Name</t>
   </si>
@@ -103,21 +103,6 @@
   </si>
   <si>
     <t>previous_address</t>
-  </si>
-  <si>
-    <t>number_of_company</t>
-  </si>
-  <si>
-    <t>registration_no</t>
-  </si>
-  <si>
-    <t>current_organisation_ACN</t>
-  </si>
-  <si>
-    <t>other_registration_number</t>
-  </si>
-  <si>
-    <t>current_organisation_ABN</t>
   </si>
   <si>
     <t>current_organisation_name</t>
@@ -622,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,98 +649,98 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>28</v>
+      <c r="A3" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
+      <c r="A4" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>30</v>
+      <c r="C4" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
+      <c r="A5" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
-        <v>31</v>
+      <c r="C5" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
+      <c r="A6" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>32</v>
+      <c r="C6" t="s">
+        <v>30</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>33</v>
+      <c r="A7" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>34</v>
+      <c r="C7" t="s">
+        <v>32</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -766,313 +751,279 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>68</v>
+      <c r="A11" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
         <v>39</v>
       </c>
       <c r="G11" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>40</v>
       </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>41</v>
       </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="B14" t="s">
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G14" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>45</v>
+      <c r="A15" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>46</v>
+      <c r="A16" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
       </c>
       <c r="E17" t="s">
-        <v>64</v>
-      </c>
-      <c r="G17" t="s">
-        <v>47</v>
+        <v>59</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E18" t="s">
-        <v>64</v>
-      </c>
-      <c r="G18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
         <v>49</v>
       </c>
-      <c r="B19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" t="s">
-        <v>62</v>
-      </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E21" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Australia_Registry_Config.xlsx
+++ b/Config/Australia_Registry_Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRADSOL123\PycharmProjects\MNS-Australia\MNS-Australia\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2FC3B4-B0ED-4A7D-9990-7F5DA008A6C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11236F73-8256-4CEE-9093-13396144374C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="1245" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -144,9 +144,6 @@
     <t>previous_organisation_details</t>
   </si>
   <si>
-    <t>name,name_start</t>
-  </si>
-  <si>
     <t>name,date</t>
   </si>
   <si>
@@ -232,6 +229,9 @@
   </si>
   <si>
     <t>principal_place_of_business_address,cease_date</t>
+  </si>
+  <si>
+    <t>name,date_after_to_in_heading</t>
   </si>
 </sst>
 </file>
@@ -610,7 +610,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,13 +751,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
@@ -766,18 +766,18 @@
         <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
@@ -786,7 +786,7 @@
         <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -814,13 +814,13 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>
@@ -834,13 +834,13 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G12" t="s">
         <v>15</v>
@@ -848,122 +848,122 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
         <v>45</v>
       </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" t="s">
         <v>46</v>
       </c>
-      <c r="D18" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="G18" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -974,36 +974,36 @@
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D19" t="s">
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
         <v>52</v>
       </c>
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" t="s">
         <v>53</v>
       </c>
-      <c r="D20" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="G20" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1023,7 +1023,7 @@
         <v>22</v>
       </c>
       <c r="G21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
